--- a/NaverPowerLinkRanking/MultiSearchTestSample/Test Sample4 (56EA).xlsx
+++ b/NaverPowerLinkRanking/MultiSearchTestSample/Test Sample4 (56EA).xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PARK_GUN_HO\Devgun_Repo\NaverPowerLinkRanking\MultiSearchTestSample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>URL</t>
   </si>
@@ -145,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,7 +876,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,7 +911,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,25 +1088,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1207,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1327,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1415,7 +1412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1423,7 +1420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1431,7 +1428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1439,7 +1436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1447,7 +1444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1471,7 +1468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1487,7 +1484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1503,7 +1500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1511,7 +1508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1519,7 +1516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -1527,7 +1524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1535,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -1543,7 +1540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1551,11 +1548,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>38</v>
       </c>
       <c r="B56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
         <v>35</v>
       </c>
     </row>
